--- a/nr-mv-MS/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1870,7 +1870,7 @@
     <t>Practitioner.active</t>
   </si>
   <si>
-    <t>Cette ressource est-elle active?
+    <t>Cette ressource est-elle active ?
 true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>

--- a/nr-mv-MS/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
